--- a/biology/Botanique/Alpinia_conchigera/Alpinia_conchigera.xlsx
+++ b/biology/Botanique/Alpinia_conchigera/Alpinia_conchigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia conchigera  est une espèce de plante herbacée vivace du genre Alpinia de la famille des Zingiberaceae, originaire d'une région qui s'étend de l'Est de l'Inde au Yunnan et à l'île de Sumatra.
 La découverte de Alpinia conchigera fut faite par le botaniste britannique William Griffith (1810-1845) en Malaisie, à Malacca.
 La publication de ses notes, ré arrangées par John McClelland fut faite à titre posthume de 1847 à 1854 sous le titre «Notulae ad Plantas Asiaticas» (Not. Pl. Asiat.), en 4 volumes.
-Alpinia conchigera y est décrit en 1851 dans le volume 3, page 424[1].
+Alpinia conchigera y est décrit en 1851 dans le volume 3, page 424.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Noms locaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On le nomme localement en Malaysie sous différents noms:  "Langkunang", "Lengkuas geting", "Lengkuas genting", "Lengkuas ranting"
 En Thaï on le nomme  ข่าลิง   "Kha ling".
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,6 +617,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -624,9 +644,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Cardamomin est un type de chalcone naturelle isolée à partir de  Alpinia conchigera[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cardamomin est un type de chalcone naturelle isolée à partir de  Alpinia conchigera.
 </t>
         </is>
       </c>
@@ -655,9 +677,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 oct. 2011)[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 oct. 2011) :
 Languas conchigera (Griff.) Burkill, (1930).
 Strobidia conchigera (Griff.) Kuntze, (1891).</t>
         </is>
